--- a/publication/analyses/outputs/rmse_z/gdpt_bin-r_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin-r_rmse-z.xlsx
@@ -558,70 +558,70 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.059382422803</v>
+        <v>1057.366153846154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9544393357383807</v>
+        <v>0.9449212416697137</v>
       </c>
       <c r="E2" t="n">
-        <v>1.044893111638965</v>
+        <v>1.592307692307702</v>
       </c>
       <c r="F2" t="n">
-        <v>118.1464129467272</v>
+        <v>104.845008475194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2449754392768654</v>
+        <v>1.543827478235422</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9098846727563074</v>
+        <v>-0.1827674016766958</v>
       </c>
       <c r="I2" t="n">
-        <v>1.510053333887008</v>
+        <v>0.5463759282705529</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00287142933593914</v>
+        <v>-0.04236414324339088</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01434287794390782</v>
+        <v>0.07486626928564244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4896194774769814</v>
+        <v>0.2338355087905244</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.267812809247244</v>
+        <v>-0.4793858822651518</v>
       </c>
       <c r="N2" t="n">
-        <v>52.82422802850356</v>
+        <v>52.69538461538462</v>
       </c>
       <c r="O2" t="n">
-        <v>431.5437232386778</v>
+        <v>453.9027468816307</v>
       </c>
       <c r="P2" t="n">
-        <v>402.385203839835</v>
+        <v>384.9541656106993</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.656981739853807</v>
+        <v>0.3953038831653787</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.8809720181813215</v>
+        <v>0.1324823337841791</v>
       </c>
       <c r="T2" t="n">
-        <v>2.022554366143687</v>
+        <v>0.4871414100856032</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.2449754392768654</v>
+        <v>-1.543827478235422</v>
       </c>
       <c r="V2" t="n">
-        <v>118.1464129467272</v>
+        <v>104.845008475194</v>
       </c>
       <c r="W2" t="n">
-        <v>1.788546348468023</v>
+        <v>0.8991878264002933</v>
       </c>
       <c r="X2" t="n">
-        <v>421</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -632,70 +632,70 @@
         <v>225</v>
       </c>
       <c r="C3" t="n">
-        <v>1431.807256235828</v>
+        <v>1044.558631921824</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9543603978362019</v>
+        <v>0.9273634173733174</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9231292517006704</v>
+        <v>1.207817589576557</v>
       </c>
       <c r="F3" t="n">
-        <v>227.6070464960621</v>
+        <v>224.065873356555</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.791569726699829</v>
+        <v>0.8052034913387703</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9849530158208372</v>
+        <v>-0.5034705838343624</v>
       </c>
       <c r="I3" t="n">
-        <v>1.609449815742509</v>
+        <v>0.9135237439530184</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01900866045236319</v>
+        <v>-0.04550794939280208</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0087203658805556</v>
+        <v>0.03620005125635661</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5024961244727195</v>
+        <v>0.4082240437299039</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05552793814600612</v>
+        <v>-0.1805969095931438</v>
       </c>
       <c r="N3" t="n">
-        <v>49.09750566893424</v>
+        <v>48.92508143322475</v>
       </c>
       <c r="O3" t="n">
-        <v>430.1992469242295</v>
+        <v>431.1477472113035</v>
       </c>
       <c r="P3" t="n">
-        <v>363.2459254142121</v>
+        <v>396.3819937731997</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.669939187988881</v>
+        <v>0.3964857532455751</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.8776652145640983</v>
+        <v>0.09663089433481362</v>
       </c>
       <c r="T3" t="n">
-        <v>2.00303759165813</v>
+        <v>0.6025802970168854</v>
       </c>
       <c r="U3" t="n">
-        <v>1.791569726699829</v>
+        <v>-0.8052034913387703</v>
       </c>
       <c r="V3" t="n">
-        <v>227.6070464960621</v>
+        <v>224.065873356555</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94388844024456</v>
+        <v>1.269836697463687</v>
       </c>
       <c r="X3" t="n">
-        <v>882</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4">
@@ -706,70 +706,70 @@
         <v>350</v>
       </c>
       <c r="C4" t="n">
-        <v>1413.066872427984</v>
+        <v>1072.215988779804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9450766080533582</v>
+        <v>0.9255930217044702</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.601028806584353</v>
+        <v>2.608274894810668</v>
       </c>
       <c r="F4" t="n">
-        <v>349.7544282031236</v>
+        <v>355.9308675936459</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.749868390886665</v>
+        <v>1.941059737938881</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.208727718990685</v>
+        <v>-0.7624430437987492</v>
       </c>
       <c r="I4" t="n">
-        <v>1.952223094393606</v>
+        <v>1.471880691620011</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.005770434245433191</v>
+        <v>0.05637119804769756</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03224295791825369</v>
+        <v>-0.04982625946089946</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4793904059729452</v>
+        <v>0.381716158358394</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02738614306279082</v>
+        <v>0.1291709516199683</v>
       </c>
       <c r="N4" t="n">
-        <v>45.57201646090535</v>
+        <v>36.31977559607293</v>
       </c>
       <c r="O4" t="n">
-        <v>407.1802245457554</v>
+        <v>332.0157809135414</v>
       </c>
       <c r="P4" t="n">
-        <v>402.6414020745109</v>
+        <v>360.5822558223263</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.698892487888824</v>
+        <v>0.4792164035118819</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.9260805955927754</v>
+        <v>-0.005253785763080949</v>
       </c>
       <c r="T4" t="n">
-        <v>2.050100256992208</v>
+        <v>0.6044449404197529</v>
       </c>
       <c r="U4" t="n">
-        <v>3.749868390886665</v>
+        <v>-1.941059737938881</v>
       </c>
       <c r="V4" t="n">
-        <v>349.7544282031236</v>
+        <v>355.9308675936459</v>
       </c>
       <c r="W4" t="n">
-        <v>2.366232802912799</v>
+        <v>1.755233503250185</v>
       </c>
       <c r="X4" t="n">
-        <v>972</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5">
@@ -780,70 +780,70 @@
         <v>475</v>
       </c>
       <c r="C5" t="n">
-        <v>1361.808695652174</v>
+        <v>1083.763076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9616942412790063</v>
+        <v>0.9250313410370359</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.078260869565209</v>
+        <v>3.192307692307701</v>
       </c>
       <c r="F5" t="n">
-        <v>451.0693662840987</v>
+        <v>453.9033896499955</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.343554570021183</v>
+        <v>2.286065233174964</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.223445296965695</v>
+        <v>-1.054429674149614</v>
       </c>
       <c r="I5" t="n">
-        <v>1.996049590190127</v>
+        <v>1.931815550366022</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1102005009367896</v>
+        <v>0.004669425456218405</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.07832623746846482</v>
+        <v>-0.03394537228809891</v>
       </c>
       <c r="L5" t="n">
-        <v>0.503912377460487</v>
+        <v>0.4915647704794313</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4192870811973081</v>
+        <v>0.5371939252963939</v>
       </c>
       <c r="N5" t="n">
-        <v>29.23913043478261</v>
+        <v>21.09846153846154</v>
       </c>
       <c r="O5" t="n">
-        <v>270.5471187369366</v>
+        <v>205.4677907829984</v>
       </c>
       <c r="P5" t="n">
-        <v>327.3540518801542</v>
+        <v>275.8228375760975</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.823361409243824</v>
+        <v>0.4468266442576123</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.9980318221777389</v>
+        <v>0.01237566954056361</v>
       </c>
       <c r="T5" t="n">
-        <v>2.164959633978539</v>
+        <v>0.6897165914182772</v>
       </c>
       <c r="U5" t="n">
-        <v>6.343554570021183</v>
+        <v>-2.286065233174964</v>
       </c>
       <c r="V5" t="n">
-        <v>451.0693662840987</v>
+        <v>453.9033896499955</v>
       </c>
       <c r="W5" t="n">
-        <v>2.41639457395843</v>
+        <v>2.293092874221573</v>
       </c>
       <c r="X5" t="n">
-        <v>230</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rmse_z/gdpt_bin-r_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin-r_rmse-z.xlsx
@@ -570,25 +570,25 @@
         <v>104.845008475194</v>
       </c>
       <c r="G2" t="n">
-        <v>1.543827478235422</v>
+        <v>1.543828497977106</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1827674016766958</v>
+        <v>-0.182767473843094</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5463759282705529</v>
+        <v>0.5463757798102936</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.04236414324339088</v>
+        <v>-0.04236414364045721</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07486626928564244</v>
+        <v>0.07486626927050216</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2338355087905244</v>
+        <v>0.2338355088284937</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4793858822651518</v>
+        <v>-0.4793858818863475</v>
       </c>
       <c r="N2" t="n">
         <v>52.69538461538462</v>
@@ -612,13 +612,13 @@
         <v>0.4871414100856032</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.543827478235422</v>
+        <v>-1.543828497977106</v>
       </c>
       <c r="V2" t="n">
         <v>104.845008475194</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8991878264002933</v>
+        <v>0.899187764730462</v>
       </c>
       <c r="X2" t="n">
         <v>325</v>
@@ -644,25 +644,25 @@
         <v>224.065873356555</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8052034913387703</v>
+        <v>0.8052046682728033</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5034705838343624</v>
+        <v>-0.5034705385049405</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9135237439530184</v>
+        <v>0.9135237238675314</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.04550794939280208</v>
+        <v>-0.04550794975370507</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03620005125635661</v>
+        <v>0.03620005145482082</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4082240437299039</v>
+        <v>0.4082240440120741</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1805969095931438</v>
+        <v>-0.1805969098384622</v>
       </c>
       <c r="N3" t="n">
         <v>48.92508143322475</v>
@@ -686,13 +686,13 @@
         <v>0.6025802970168854</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.8052034913387703</v>
+        <v>-0.8052046682728033</v>
       </c>
       <c r="V3" t="n">
         <v>224.065873356555</v>
       </c>
       <c r="W3" t="n">
-        <v>1.269836697463687</v>
+        <v>1.269836724777756</v>
       </c>
       <c r="X3" t="n">
         <v>614</v>
@@ -718,25 +718,25 @@
         <v>355.9308675936459</v>
       </c>
       <c r="G4" t="n">
-        <v>1.941059737938881</v>
+        <v>1.941060235046172</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7624430437987492</v>
+        <v>-0.7624433658336122</v>
       </c>
       <c r="I4" t="n">
-        <v>1.471880691620011</v>
+        <v>1.471880910195378</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05637119804769756</v>
+        <v>0.05637119814368578</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04982625946089946</v>
+        <v>-0.04982625936504644</v>
       </c>
       <c r="L4" t="n">
-        <v>0.381716158358394</v>
+        <v>0.3817161585985616</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1291709516199683</v>
+        <v>0.1291709515402626</v>
       </c>
       <c r="N4" t="n">
         <v>36.31977559607293</v>
@@ -760,13 +760,13 @@
         <v>0.6044449404197529</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.941059737938881</v>
+        <v>-1.941060235046172</v>
       </c>
       <c r="V4" t="n">
         <v>355.9308675936459</v>
       </c>
       <c r="W4" t="n">
-        <v>1.755233503250185</v>
+        <v>1.755233705407792</v>
       </c>
       <c r="X4" t="n">
         <v>713</v>
@@ -792,25 +792,25 @@
         <v>453.9033896499955</v>
       </c>
       <c r="G5" t="n">
-        <v>2.286065233174964</v>
+        <v>2.286065175948688</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.054429674149614</v>
+        <v>-1.054430863753008</v>
       </c>
       <c r="I5" t="n">
-        <v>1.931815550366022</v>
+        <v>1.931816464728147</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004669425456218405</v>
+        <v>0.004669426324504402</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.03394537228809891</v>
+        <v>-0.03394537285822767</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4915647704794313</v>
+        <v>0.4915647706135066</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5371939252963939</v>
+        <v>0.5371939255559172</v>
       </c>
       <c r="N5" t="n">
         <v>21.09846153846154</v>
@@ -834,13 +834,13 @@
         <v>0.6897165914182772</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.286065233174964</v>
+        <v>-2.286065175948688</v>
       </c>
       <c r="V5" t="n">
         <v>453.9033896499955</v>
       </c>
       <c r="W5" t="n">
-        <v>2.293092874221573</v>
+        <v>2.293093589334238</v>
       </c>
       <c r="X5" t="n">
         <v>325</v>

--- a/publication/analyses/outputs/rmse_z/gdpt_bin-r_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin-r_rmse-z.xlsx
@@ -570,25 +570,25 @@
         <v>104.845008475194</v>
       </c>
       <c r="G2" t="n">
-        <v>1.543828497977106</v>
+        <v>1.543828300003509</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.182767473843094</v>
+        <v>-0.1827674171139557</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5463757798102936</v>
+        <v>0.5463757420760956</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.04236414364045721</v>
+        <v>-0.04236414437134079</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07486626927050216</v>
+        <v>0.07486626898152071</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2338355088284937</v>
+        <v>0.2338355086885701</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4793858818863475</v>
+        <v>-0.47938588213013</v>
       </c>
       <c r="N2" t="n">
         <v>52.69538461538462</v>
@@ -612,13 +612,13 @@
         <v>0.4871414100856032</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.543828497977106</v>
+        <v>-1.543828300003509</v>
       </c>
       <c r="V2" t="n">
         <v>104.845008475194</v>
       </c>
       <c r="W2" t="n">
-        <v>0.899187764730462</v>
+        <v>0.899187723626225</v>
       </c>
       <c r="X2" t="n">
         <v>325</v>
@@ -644,25 +644,25 @@
         <v>224.065873356555</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8052046682728033</v>
+        <v>0.8052044316295229</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5034705385049405</v>
+        <v>-0.5034704590389898</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9135237238675314</v>
+        <v>0.9135236889807166</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.04550794975370507</v>
+        <v>-0.04550795013312896</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03620005145482082</v>
+        <v>0.03620005132583903</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4082240440120741</v>
+        <v>0.408224043856217</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1805969098384622</v>
+        <v>-0.1805969100703807</v>
       </c>
       <c r="N3" t="n">
         <v>48.92508143322475</v>
@@ -686,13 +686,13 @@
         <v>0.6025802970168854</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.8052046682728033</v>
+        <v>-0.8052044316295229</v>
       </c>
       <c r="V3" t="n">
         <v>224.065873356555</v>
       </c>
       <c r="W3" t="n">
-        <v>1.269836724777756</v>
+        <v>1.269836747956459</v>
       </c>
       <c r="X3" t="n">
         <v>614</v>
@@ -718,25 +718,25 @@
         <v>355.9308675936459</v>
       </c>
       <c r="G4" t="n">
-        <v>1.941060235046172</v>
+        <v>1.941060367046544</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7624433658336122</v>
+        <v>-0.76244297854317</v>
       </c>
       <c r="I4" t="n">
-        <v>1.471880910195378</v>
+        <v>1.471880971901312</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05637119814368578</v>
+        <v>0.05637119829086571</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04982625936504644</v>
+        <v>-0.04982625911833739</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3817161585985616</v>
+        <v>0.3817161582564884</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1291709515402626</v>
+        <v>0.1291709515795788</v>
       </c>
       <c r="N4" t="n">
         <v>36.31977559607293</v>
@@ -760,13 +760,13 @@
         <v>0.6044449404197529</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.941060235046172</v>
+        <v>-1.941060367046544</v>
       </c>
       <c r="V4" t="n">
         <v>355.9308675936459</v>
       </c>
       <c r="W4" t="n">
-        <v>1.755233705407792</v>
+        <v>1.755233785253079</v>
       </c>
       <c r="X4" t="n">
         <v>713</v>
@@ -792,25 +792,25 @@
         <v>453.9033896499955</v>
       </c>
       <c r="G5" t="n">
-        <v>2.286065175948688</v>
+        <v>2.28606531670985</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.054430863753008</v>
+        <v>-1.054430538876594</v>
       </c>
       <c r="I5" t="n">
-        <v>1.931816464728147</v>
+        <v>1.931817201707017</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004669426324504402</v>
+        <v>0.004669427449304683</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.03394537285822767</v>
+        <v>-0.03394537286682633</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4915647706135066</v>
+        <v>0.4915647698995559</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5371939255559172</v>
+        <v>0.5371939261515905</v>
       </c>
       <c r="N5" t="n">
         <v>21.09846153846154</v>
@@ -834,13 +834,13 @@
         <v>0.6897165914182772</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.286065175948688</v>
+        <v>-2.28606531670985</v>
       </c>
       <c r="V5" t="n">
         <v>453.9033896499955</v>
       </c>
       <c r="W5" t="n">
-        <v>2.293093589334238</v>
+        <v>2.293094290345867</v>
       </c>
       <c r="X5" t="n">
         <v>325</v>
